--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N2">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O2">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P2">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q2">
-        <v>0.03871581441333334</v>
+        <v>0.07179181138222224</v>
       </c>
       <c r="R2">
-        <v>0.3484423297200001</v>
+        <v>0.6461263024400001</v>
       </c>
       <c r="S2">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="T2">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>47.114695</v>
       </c>
       <c r="O3">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P3">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q3">
         <v>7.500868842644445</v>
@@ -635,10 +635,10 @@
         <v>67.5078195838</v>
       </c>
       <c r="S3">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="T3">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N4">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q4">
-        <v>1.234117350742223</v>
+        <v>1.317480459555556</v>
       </c>
       <c r="R4">
-        <v>11.10705615668</v>
+        <v>11.857324136</v>
       </c>
       <c r="S4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="T4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N5">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q5">
-        <v>0.01575869272888889</v>
+        <v>0.05083557115555556</v>
       </c>
       <c r="R5">
-        <v>0.14182823456</v>
+        <v>0.4575201404</v>
       </c>
       <c r="S5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="T5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
     </row>
   </sheetData>
